--- a/Setup and Installation/Required Software and Setup.xlsx
+++ b/Setup and Installation/Required Software and Setup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\Virtual Training\ACE\Sapient\ASDE 2024\Setup and Installation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\ASDE 2024\Setup and Installation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99025905-4DD2-4716-AB56-AEC65C54D908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DF9F5B-31CA-4427-B071-E227FD7F6D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Serial No.</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t xml:space="preserve">Just download the VisualVM 2.1.7  zip file. </t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/java/technologies/javase/javase8-archive-downloads.html</t>
+  </si>
+  <si>
+    <t>JDK 1.8</t>
+  </si>
+  <si>
+    <t>Memory Analyzer 1.15.0 Release</t>
+  </si>
+  <si>
+    <t>https://eclipse.dev/mat/downloads.php</t>
+  </si>
+  <si>
+    <t>Download and install jdk-8u202-windows-x64.exe</t>
   </si>
 </sst>
 </file>
@@ -710,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1065,6 +1080,31 @@
       </c>
       <c r="D41" s="16" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18">
+      <c r="A43" s="2">
+        <v>21</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18">
+      <c r="A45" s="2">
+        <v>22</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1105,6 +1145,8 @@
     <hyperlink ref="D39" r:id="rId34" xr:uid="{80ED40D2-6261-493D-B9D1-4C3E95861119}"/>
     <hyperlink ref="B41" r:id="rId35" display="https://github.com/oracle/visualvm/releases/download/2.1.7/visualvm_217.zip" xr:uid="{0B847E73-127B-43B8-AD47-4A6498691BDF}"/>
     <hyperlink ref="C41" r:id="rId36" xr:uid="{DB8F1A30-7E5A-403B-A132-00D5B03F832D}"/>
+    <hyperlink ref="C43" r:id="rId37" xr:uid="{D3131EC7-625D-49EB-A26E-B823710FDDA3}"/>
+    <hyperlink ref="C45" r:id="rId38" xr:uid="{FB92A736-E8EB-4CA2-9BE5-AED0453208A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Setup and Installation/Required Software and Setup.xlsx
+++ b/Setup and Installation/Required Software and Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\ASDE 2024\Setup and Installation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DF9F5B-31CA-4427-B071-E227FD7F6D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87C0D6-B833-4A14-840F-D51C9CCE204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,8 +728,8 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Setup and Installation/Required Software and Setup.xlsx
+++ b/Setup and Installation/Required Software and Setup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\ASDE 2024\Setup and Installation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87C0D6-B833-4A14-840F-D51C9CCE204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3C59F2-EBBE-4B1D-900B-B7C381D837F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Serial No.</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>Download and install jdk-8u202-windows-x64.exe</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>https://www.jenkins.io/download/</t>
   </si>
 </sst>
 </file>
@@ -725,11 +731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1105,6 +1111,17 @@
       </c>
       <c r="C45" s="6" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18">
+      <c r="A47" s="2">
+        <v>23</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1147,6 +1164,7 @@
     <hyperlink ref="C41" r:id="rId36" xr:uid="{DB8F1A30-7E5A-403B-A132-00D5B03F832D}"/>
     <hyperlink ref="C43" r:id="rId37" xr:uid="{D3131EC7-625D-49EB-A26E-B823710FDDA3}"/>
     <hyperlink ref="C45" r:id="rId38" xr:uid="{FB92A736-E8EB-4CA2-9BE5-AED0453208A0}"/>
+    <hyperlink ref="C47" r:id="rId39" xr:uid="{9B507B12-1350-4589-B1D4-7EDD2F981557}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
